--- a/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
+++ b/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
@@ -2678,16 +2678,10 @@
     <t>Check that there is 1 comma used as decimal separator when the price is ₫1,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Check that there is 1 comma used as decimal separator when the price is from ₫1,000 and ₫999,999 </t>
-  </si>
-  <si>
     <t>Check that there is 1 comma used as decimal separator when the price is ₫999,999</t>
   </si>
   <si>
     <t xml:space="preserve">Check that there are 2 commas used as decimal separators when the price is ₫1,000,000 </t>
-  </si>
-  <si>
-    <t>Check that there are 2 commas used as decimal separators when the price is from ₫1,000,000 and ₫999,999,999</t>
   </si>
   <si>
     <t>Check that there are 2 commas used as decimal separators when the price is ₫999,999,999</t>
@@ -2909,6 +2903,12 @@
   </si>
   <si>
     <t>Assignment 1_Test Case_Nguyen Thu Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check that there is 1 comma used as decimal separator when the price is between ₫1,000 and ₫999,999 </t>
+  </si>
+  <si>
+    <t>Check that there are 2 commas used as decimal separators when the price is between ₫1,000,000 and ₫999,999,999</t>
   </si>
 </sst>
 </file>
@@ -2916,9 +2916,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="67">
     <font>
@@ -3850,46 +3850,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="14" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="14" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="21" applyFont="0"/>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="21" applyFont="0"/>
     <xf numFmtId="2" fontId="53" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="15" borderId="21">
+    <xf numFmtId="165" fontId="25" fillId="15" borderId="21">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="16" borderId="21" applyAlignment="0">
+    <xf numFmtId="165" fontId="25" fillId="16" borderId="21" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="54" fillId="4" borderId="0">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="54" fillId="4" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="52" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="55" fillId="17" borderId="2">
+    <xf numFmtId="165" fontId="55" fillId="17" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="52" fillId="18" borderId="2">
+    <xf numFmtId="165" fontId="52" fillId="18" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4082,7 +4082,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4094,7 +4094,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4106,16 +4106,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
@@ -4124,16 +4124,16 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="45" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="45" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="47" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4145,25 +4145,25 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="49" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="50" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="48" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4172,16 +4172,16 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="51" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4193,10 +4193,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="58" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -4208,16 +4208,16 @@
     <xf numFmtId="0" fontId="60" fillId="6" borderId="6" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="61" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="61" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="61" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="62" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4238,7 +4238,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4277,7 +4277,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="57" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="57" fillId="0" borderId="0" xfId="26" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
@@ -4305,19 +4305,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4482,14 +4482,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4511,6 +4515,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4560,17 +4567,26 @@
     <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4581,26 +4597,14 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4614,44 +4618,8 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4659,7 +4627,31 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4668,27 +4660,35 @@
     <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -5451,35 +5451,35 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="215" t="s">
+      <c r="A4" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="216"/>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="217"/>
+      <c r="B4" s="218"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
+      <c r="E4" s="219"/>
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="218"/>
-      <c r="C5" s="219" t="s">
+      <c r="B5" s="220"/>
+      <c r="C5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="220" t="s">
-        <v>507</v>
-      </c>
-      <c r="B6" s="221"/>
-      <c r="C6" s="214"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="214"/>
+      <c r="A6" s="222" t="s">
+        <v>505</v>
+      </c>
+      <c r="B6" s="223"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
       <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5491,14 +5491,14 @@
       <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" s="144" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="212" t="s">
+      <c r="A8" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
+      <c r="B8" s="216"/>
+      <c r="C8" s="216"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="216"/>
     </row>
     <row r="9" spans="1:6" s="144" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="145" t="s">
@@ -5524,20 +5524,20 @@
       <c r="A10" s="128">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B10" s="281">
+      <c r="B10" s="214">
         <v>44851</v>
       </c>
       <c r="C10" s="129" t="s">
+        <v>487</v>
+      </c>
+      <c r="D10" s="146" t="s">
+        <v>488</v>
+      </c>
+      <c r="E10" s="130" t="s">
         <v>489</v>
       </c>
-      <c r="D10" s="146" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="130" t="s">
-        <v>491</v>
-      </c>
       <c r="F10" s="130" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="144" customFormat="1" ht="30" customHeight="1">
@@ -5670,36 +5670,36 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="230" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="227"/>
-      <c r="D2" s="227"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="225" t="s">
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="230"/>
+      <c r="H2" s="230"/>
+      <c r="I2" s="230"/>
+      <c r="J2" s="228" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="225"/>
+      <c r="K2" s="228"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="231" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="226" t="s">
+      <c r="C3" s="231"/>
+      <c r="D3" s="231"/>
+      <c r="E3" s="231"/>
+      <c r="F3" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="228"/>
+      <c r="K3" s="228"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="149"/>
@@ -5719,65 +5719,65 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="232"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="232"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="232"/>
-      <c r="G7" s="232"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="232"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="235"/>
+      <c r="I7" s="235"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="232"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
+      <c r="A8" s="235"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
+      <c r="G8" s="235"/>
+      <c r="H8" s="235"/>
+      <c r="I8" s="235"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="232" t="s">
+      <c r="A9" s="235" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="232"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="232"/>
-      <c r="G10" s="232"/>
-      <c r="H10" s="232"/>
-      <c r="I10" s="232"/>
+      <c r="A10" s="235"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="235"/>
+      <c r="E10" s="235"/>
+      <c r="F10" s="235"/>
+      <c r="G10" s="235"/>
+      <c r="H10" s="235"/>
+      <c r="I10" s="235"/>
     </row>
     <row r="11" spans="1:11" ht="14">
-      <c r="A11" s="233" t="s">
+      <c r="A11" s="236" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="233"/>
-      <c r="C11" s="233"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="236"/>
+      <c r="H11" s="236"/>
+      <c r="I11" s="236"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3"/>
@@ -5799,65 +5799,65 @@
       <c r="A14" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="232" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="230"/>
-      <c r="D14" s="230"/>
-      <c r="E14" s="230"/>
-      <c r="F14" s="230"/>
-      <c r="G14" s="230"/>
-      <c r="H14" s="230"/>
-      <c r="I14" s="230"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="231"/>
+      <c r="C14" s="233"/>
+      <c r="D14" s="233"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="233"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="233"/>
+      <c r="I14" s="233"/>
+      <c r="J14" s="233"/>
+      <c r="K14" s="234"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="131" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="229" t="s">
+      <c r="B15" s="232" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="230"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="230"/>
-      <c r="F15" s="230"/>
-      <c r="G15" s="230"/>
-      <c r="H15" s="230"/>
-      <c r="I15" s="230"/>
-      <c r="J15" s="230"/>
-      <c r="K15" s="231"/>
+      <c r="C15" s="233"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="233"/>
+      <c r="G15" s="233"/>
+      <c r="H15" s="233"/>
+      <c r="I15" s="233"/>
+      <c r="J15" s="233"/>
+      <c r="K15" s="234"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="131"/>
-      <c r="B16" s="229" t="s">
+      <c r="B16" s="232" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="230"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="230"/>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="230"/>
-      <c r="J16" s="230"/>
-      <c r="K16" s="231"/>
+      <c r="C16" s="233"/>
+      <c r="D16" s="233"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="233"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="131"/>
-      <c r="B17" s="229" t="s">
+      <c r="B17" s="232" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="230"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="230"/>
-      <c r="F17" s="230"/>
-      <c r="G17" s="230"/>
-      <c r="H17" s="230"/>
-      <c r="I17" s="230"/>
-      <c r="J17" s="230"/>
-      <c r="K17" s="231"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="233"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
     </row>
     <row r="19" spans="1:14" ht="23">
       <c r="A19" s="4" t="s">
@@ -5868,40 +5868,40 @@
       <c r="A20" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="229" t="s">
+      <c r="B20" s="232" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="230"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="230"/>
-      <c r="G20" s="231"/>
+      <c r="C20" s="233"/>
+      <c r="D20" s="233"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="233"/>
+      <c r="G20" s="234"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="229" t="s">
+      <c r="B21" s="232" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="230"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="230"/>
-      <c r="F21" s="230"/>
-      <c r="G21" s="231"/>
+      <c r="C21" s="233"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="233"/>
+      <c r="G21" s="234"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="229" t="s">
+      <c r="B22" s="232" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="230"/>
-      <c r="F22" s="230"/>
-      <c r="G22" s="231"/>
+      <c r="C22" s="233"/>
+      <c r="D22" s="233"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="234"/>
     </row>
     <row r="24" spans="1:14" ht="23">
       <c r="A24" s="4" t="s">
@@ -5960,11 +5960,11 @@
       <c r="N27" s="68"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="222" t="s">
+      <c r="B29" s="225" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="223"/>
-      <c r="D29" s="224"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="5"/>
@@ -6041,14 +6041,14 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" s="9" customFormat="1" ht="25">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="10"/>
@@ -6096,7 +6096,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
@@ -6157,8 +6157,8 @@
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:10" s="280" customFormat="1">
-      <c r="A14" s="279"/>
+    <row r="14" spans="1:10" s="213" customFormat="1">
+      <c r="A14" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6201,12 +6201,12 @@
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="25">
-      <c r="A2" s="237" t="s">
+      <c r="A2" s="240" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="237"/>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
       <c r="E2" s="152"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
@@ -6331,18 +6331,18 @@
       <c r="F14" s="29"/>
     </row>
     <row r="16" spans="1:11" ht="14">
-      <c r="A16" s="235" t="s">
+      <c r="A16" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="235"/>
+      <c r="B16" s="238"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="14">
-      <c r="A17" s="236" t="s">
+      <c r="A17" s="239" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="236"/>
+      <c r="B17" s="239"/>
     </row>
     <row r="20" spans="1:4" ht="13">
       <c r="A20" s="33"/>
@@ -6371,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -6417,8 +6417,8 @@
     </row>
     <row r="3" spans="1:24" s="166" customFormat="1" ht="23">
       <c r="A3" s="47"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
+      <c r="C3" s="247"/>
+      <c r="D3" s="247"/>
       <c r="E3" s="158"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -6430,11 +6430,11 @@
       <c r="A4" s="136" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="249" t="s">
-        <v>500</v>
-      </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="B4" s="242" t="s">
+        <v>498</v>
+      </c>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
       <c r="E4" s="167"/>
       <c r="F4" s="167"/>
       <c r="G4" s="167"/>
@@ -6448,9 +6448,9 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="248"/>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="B5" s="241"/>
+      <c r="C5" s="242"/>
+      <c r="D5" s="242"/>
       <c r="E5" s="167"/>
       <c r="F5" s="167"/>
       <c r="G5" s="167"/>
@@ -6464,9 +6464,9 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="248"/>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="B6" s="241"/>
+      <c r="C6" s="242"/>
+      <c r="D6" s="242"/>
       <c r="E6" s="167"/>
       <c r="F6" s="167"/>
       <c r="G6" s="167"/>
@@ -6477,11 +6477,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="242" t="s">
         <v>417</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
+      <c r="C7" s="242"/>
+      <c r="D7" s="242"/>
       <c r="E7" s="167"/>
       <c r="F7" s="167"/>
       <c r="G7" s="167"/>
@@ -6493,11 +6493,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="250" t="s">
+      <c r="B8" s="243" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="250"/>
-      <c r="D8" s="250"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="167"/>
     </row>
     <row r="9" spans="1:24" s="172" customFormat="1" ht="13">
@@ -6577,11 +6577,11 @@
       <c r="C16" s="177"/>
       <c r="D16" s="178"/>
       <c r="E16" s="179"/>
-      <c r="F16" s="251" t="s">
+      <c r="F16" s="244" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
       <c r="I16" s="180"/>
     </row>
     <row r="17" spans="1:9" s="181" customFormat="1" ht="13">
@@ -6610,7 +6610,7 @@
     <row r="18" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A18" s="65"/>
       <c r="B18" s="161" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C18" s="164"/>
       <c r="D18" s="165"/>
@@ -6628,10 +6628,10 @@
         <v>416</v>
       </c>
       <c r="C19" s="183" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D19" s="184" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E19" s="185" t="s">
         <v>73</v>
@@ -6644,7 +6644,7 @@
     <row r="20" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A20" s="65"/>
       <c r="B20" s="161" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C20" s="159"/>
       <c r="D20" s="160"/>
@@ -6657,7 +6657,7 @@
     <row r="21" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A21" s="65"/>
       <c r="B21" s="161" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C21" s="159"/>
       <c r="D21" s="160"/>
@@ -6700,7 +6700,7 @@
         <v>392</v>
       </c>
       <c r="D23" s="184" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E23" s="185" t="s">
         <v>73</v>
@@ -6722,7 +6722,7 @@
         <v>393</v>
       </c>
       <c r="D24" s="184" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E24" s="185" t="s">
         <v>73</v>
@@ -6738,13 +6738,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="206" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="C25" s="206" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D25" s="192" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E25" s="207" t="s">
         <v>73</v>
@@ -6760,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C26" s="183" t="s">
         <v>394</v>
       </c>
       <c r="D26" s="184" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E26" s="185" t="s">
         <v>73</v>
@@ -6782,13 +6782,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C27" s="183" t="s">
         <v>395</v>
       </c>
       <c r="D27" s="184" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E27" s="185" t="s">
         <v>73</v>
@@ -6804,13 +6804,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="206" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="C28" s="206" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D28" s="192" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E28" s="207" t="s">
         <v>73</v>
@@ -6826,13 +6826,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="183" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C29" s="183" t="s">
         <v>392</v>
       </c>
       <c r="D29" s="184" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E29" s="185" t="s">
         <v>73</v>
@@ -6848,13 +6848,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="183" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C30" s="183" t="s">
         <v>396</v>
       </c>
       <c r="D30" s="184" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E30" s="185" t="s">
         <v>73</v>
@@ -6870,13 +6870,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="183" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C31" s="183" t="s">
         <v>397</v>
       </c>
       <c r="D31" s="184" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E31" s="185" t="s">
         <v>73</v>
@@ -6889,7 +6889,7 @@
     <row r="32" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A32" s="65"/>
       <c r="B32" s="161" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C32" s="159"/>
       <c r="D32" s="160"/>
@@ -6955,7 +6955,7 @@
         <v>398</v>
       </c>
       <c r="D35" s="184" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E35" s="185" t="s">
         <v>73</v>
@@ -6977,7 +6977,7 @@
         <v>399</v>
       </c>
       <c r="D36" s="184" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E36" s="185" t="s">
         <v>73</v>
@@ -6993,13 +6993,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="206" t="s">
-        <v>445</v>
+        <v>506</v>
       </c>
       <c r="C37" s="206" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D37" s="192" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E37" s="185" t="s">
         <v>73</v>
@@ -7015,13 +7015,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C38" s="183" t="s">
         <v>400</v>
       </c>
       <c r="D38" s="184" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E38" s="185" t="s">
         <v>73</v>
@@ -7037,13 +7037,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C39" s="183" t="s">
         <v>401</v>
       </c>
       <c r="D39" s="184" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E39" s="185" t="s">
         <v>73</v>
@@ -7059,13 +7059,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="206" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="C40" s="206" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D40" s="192" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E40" s="185" t="s">
         <v>73</v>
@@ -7081,13 +7081,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="183" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C41" s="183" t="s">
         <v>398</v>
       </c>
       <c r="D41" s="184" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E41" s="185" t="s">
         <v>73</v>
@@ -7103,13 +7103,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="183" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C42" s="183" t="s">
         <v>402</v>
       </c>
       <c r="D42" s="184" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E42" s="185" t="s">
         <v>73</v>
@@ -7125,13 +7125,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="183" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C43" s="183" t="s">
         <v>403</v>
       </c>
       <c r="D43" s="184" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E43" s="185" t="s">
         <v>73</v>
@@ -7150,10 +7150,10 @@
         <v>420</v>
       </c>
       <c r="C44" s="192" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D44" s="192" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E44" s="192" t="s">
         <v>73</v>
@@ -23540,13 +23540,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="183" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C45" s="183" t="s">
         <v>414</v>
       </c>
       <c r="D45" s="185" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E45" s="185" t="s">
         <v>73</v>
@@ -23562,13 +23562,13 @@
         <v>25</v>
       </c>
       <c r="B46" s="183" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C46" s="183" t="s">
         <v>405</v>
       </c>
       <c r="D46" s="185" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E46" s="185" t="s">
         <v>73</v>
@@ -23584,13 +23584,13 @@
         <v>26</v>
       </c>
       <c r="B47" s="183" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C47" s="183" t="s">
         <v>413</v>
       </c>
       <c r="D47" s="185" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E47" s="185" t="s">
         <v>73</v>
@@ -23616,7 +23616,7 @@
     <row r="49" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A49" s="189"/>
       <c r="B49" s="161" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C49" s="164"/>
       <c r="D49" s="165"/>
@@ -23631,7 +23631,7 @@
         <v>27</v>
       </c>
       <c r="B50" s="183" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C50" s="183" t="s">
         <v>425</v>
@@ -23681,7 +23681,7 @@
         <v>424</v>
       </c>
       <c r="D52" s="193" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E52" s="185" t="s">
         <v>73</v>
@@ -23703,7 +23703,7 @@
         <v>431</v>
       </c>
       <c r="D53" s="193" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E53" s="185" t="s">
         <v>73</v>
@@ -23725,7 +23725,7 @@
         <v>432</v>
       </c>
       <c r="D54" s="193" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E54" s="185" t="s">
         <v>73</v>
@@ -23760,7 +23760,7 @@
     <row r="56" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A56" s="189"/>
       <c r="B56" s="162" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C56" s="159"/>
       <c r="D56" s="202"/>
@@ -23779,10 +23779,10 @@
         <v>436</v>
       </c>
       <c r="C57" s="204" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D57" s="203" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E57" s="185" t="s">
         <v>73</v>
@@ -23804,7 +23804,7 @@
         <v>435</v>
       </c>
       <c r="D58" s="193" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E58" s="185" t="s">
         <v>73</v>
@@ -23826,7 +23826,7 @@
         <v>434</v>
       </c>
       <c r="D59" s="193" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E59" s="185" t="s">
         <v>73</v>
@@ -23839,7 +23839,7 @@
     <row r="60" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A60" s="189"/>
       <c r="B60" s="163" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C60" s="159"/>
       <c r="D60" s="160"/>
@@ -23849,7 +23849,7 @@
       <c r="H60" s="191"/>
       <c r="I60" s="190"/>
     </row>
-    <row r="61" spans="1:9" s="188" customFormat="1" ht="87.5">
+    <row r="61" spans="1:9" s="188" customFormat="1" ht="75">
       <c r="A61" s="198">
         <f ca="1">IF(OFFSET(A61,-1,0) ="",OFFSET(A61,-2,0)+1,OFFSET(A61,-1,0)+1 )</f>
         <v>36</v>
@@ -23861,7 +23861,7 @@
         <v>411</v>
       </c>
       <c r="D61" s="184" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E61" s="185" t="s">
         <v>73</v>
@@ -23871,7 +23871,7 @@
       <c r="H61" s="183"/>
       <c r="I61" s="182"/>
     </row>
-    <row r="62" spans="1:9" s="188" customFormat="1" ht="87.5">
+    <row r="62" spans="1:9" s="188" customFormat="1" ht="75">
       <c r="A62" s="198">
         <f ca="1">IF(OFFSET(A62,-1,0) ="",OFFSET(A62,-2,0)+1,OFFSET(A62,-1,0)+1 )</f>
         <v>37</v>
@@ -23883,7 +23883,7 @@
         <v>412</v>
       </c>
       <c r="D62" s="184" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E62" s="185" t="s">
         <v>73</v>
@@ -23905,7 +23905,7 @@
         <v>410</v>
       </c>
       <c r="D63" s="184" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E63" s="185" t="s">
         <v>73</v>
@@ -23917,7 +23917,7 @@
     </row>
     <row r="64" spans="1:9" s="188" customFormat="1" ht="37.5">
       <c r="A64" s="198">
-        <f t="shared" ref="A64:A65" ca="1" si="2">IF(OFFSET(A64,-1,0) ="",OFFSET(A64,-2,0)+1,OFFSET(A64,-1,0)+1 )</f>
+        <f t="shared" ref="A64" ca="1" si="2">IF(OFFSET(A64,-1,0) ="",OFFSET(A64,-2,0)+1,OFFSET(A64,-1,0)+1 )</f>
         <v>39</v>
       </c>
       <c r="B64" s="193" t="s">
@@ -23927,7 +23927,7 @@
         <v>409</v>
       </c>
       <c r="D64" s="184" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E64" s="185" t="s">
         <v>73</v>
@@ -23991,7 +23991,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="238"/>
+      <c r="E2" s="258"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -24000,9 +24000,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="238"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="258"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -24013,11 +24013,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -24031,11 +24031,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -24049,11 +24049,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -24064,11 +24064,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -24080,11 +24080,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="247">
+      <c r="B8" s="253">
         <v>40850</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -24227,11 +24227,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="253" t="s">
+      <c r="F16" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="254"/>
-      <c r="H16" s="255"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="257"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -24265,11 +24265,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="244"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -24548,11 +24548,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -24701,11 +24701,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="242" t="s">
+      <c r="B35" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="243"/>
-      <c r="D35" s="244"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -24742,11 +24742,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="242" t="s">
+      <c r="B37" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -25007,11 +25007,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="248" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="243"/>
-      <c r="D47" s="244"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="250"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -25132,11 +25132,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="242" t="s">
+      <c r="B52" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="243"/>
-      <c r="D52" s="244"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -25229,11 +25229,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="242" t="s">
+      <c r="B56" s="248" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="243"/>
-      <c r="D56" s="244"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="250"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -25550,11 +25550,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="242" t="s">
+      <c r="B68" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="243"/>
-      <c r="D68" s="244"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="250"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -25647,11 +25647,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="242" t="s">
+      <c r="B72" s="248" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="243"/>
-      <c r="D72" s="244"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="250"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -25744,11 +25744,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="242" t="s">
+      <c r="B76" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="243"/>
-      <c r="D76" s="244"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="250"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -25813,11 +25813,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="242" t="s">
+      <c r="B79" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="243"/>
-      <c r="D79" s="244"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="250"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -25966,6 +25966,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -25976,17 +25987,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -26042,7 +26042,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="238"/>
+      <c r="E2" s="258"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -26051,9 +26051,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="252"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="238"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="258"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -26064,11 +26064,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="240" t="s">
+      <c r="B4" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -26082,11 +26082,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="241" t="s">
+      <c r="B5" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -26100,11 +26100,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="241" t="s">
+      <c r="B6" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -26115,11 +26115,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="240" t="s">
+      <c r="B7" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -26131,11 +26131,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="247">
+      <c r="B8" s="253">
         <v>40850</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="247"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -26278,11 +26278,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="253" t="s">
+      <c r="F16" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="254"/>
-      <c r="H16" s="255"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="257"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -26316,11 +26316,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="242" t="s">
+      <c r="B18" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="244"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -26601,11 +26601,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="242" t="s">
+      <c r="B29" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="243"/>
-      <c r="D29" s="244"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -26754,11 +26754,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="242" t="s">
+      <c r="B35" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="243"/>
-      <c r="D35" s="244"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -26795,11 +26795,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="242" t="s">
+      <c r="B37" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="243"/>
-      <c r="D37" s="244"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -27060,11 +27060,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="242" t="s">
+      <c r="B47" s="248" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="243"/>
-      <c r="D47" s="244"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="250"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -27185,11 +27185,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="242" t="s">
+      <c r="B52" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="243"/>
-      <c r="D52" s="244"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -27282,11 +27282,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="242" t="s">
+      <c r="B56" s="248" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="243"/>
-      <c r="D56" s="244"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="250"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -27603,11 +27603,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="242" t="s">
+      <c r="B68" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="243"/>
-      <c r="D68" s="244"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="250"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -27700,11 +27700,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="242" t="s">
+      <c r="B72" s="248" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="243"/>
-      <c r="D72" s="244"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="250"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -27797,11 +27797,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="242" t="s">
+      <c r="B76" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="243"/>
-      <c r="D76" s="244"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="250"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -27866,11 +27866,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="242" t="s">
+      <c r="B79" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="243"/>
-      <c r="D79" s="244"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="250"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -28019,17 +28019,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -28040,6 +28029,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -28096,13 +28096,13 @@
     </row>
     <row r="2" spans="1:12" s="82" customFormat="1" ht="25">
       <c r="A2" s="81"/>
-      <c r="C2" s="274" t="s">
+      <c r="C2" s="261" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
       <c r="H2" s="83" t="s">
         <v>304</v>
       </c>
@@ -28113,15 +28113,15 @@
     </row>
     <row r="3" spans="1:12" s="82" customFormat="1" ht="23">
       <c r="A3" s="81"/>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="153"/>
-      <c r="F3" s="276" t="s">
+      <c r="F3" s="263" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="276"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
@@ -28146,10 +28146,10 @@
       <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="264" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="258"/>
+      <c r="C6" s="264"/>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
@@ -28318,11 +28318,11 @@
       <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="258" t="s">
+      <c r="B14" s="264" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="258"/>
-      <c r="D14" s="258"/>
+      <c r="C14" s="264"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="92"/>
       <c r="F14" s="92"/>
       <c r="G14" s="93"/>
@@ -28498,11 +28498,11 @@
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="258" t="s">
+      <c r="B23" s="264" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="258"/>
-      <c r="D23" s="258"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
@@ -28548,10 +28548,10 @@
       <c r="F26" s="156" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="277" t="s">
+      <c r="G26" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="278"/>
+      <c r="H26" s="266"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="98">
@@ -28576,8 +28576,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="269"/>
-      <c r="H27" s="270"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="260"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="98">
@@ -28602,8 +28602,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="269"/>
-      <c r="H28" s="270"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="260"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="98">
@@ -28628,8 +28628,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="269"/>
-      <c r="H29" s="270"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="260"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="98">
@@ -28654,8 +28654,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="269"/>
-      <c r="H30" s="270"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="260"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="98"/>
@@ -28676,8 +28676,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="260"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="104"/>
@@ -28715,10 +28715,10 @@
       <c r="E34" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="263" t="s">
+      <c r="F34" s="267" t="s">
         <v>316</v>
       </c>
-      <c r="G34" s="265"/>
+      <c r="G34" s="268"/>
     </row>
     <row r="35" spans="1:12" s="123" customFormat="1" ht="14.5">
       <c r="A35" s="119"/>
@@ -28734,8 +28734,8 @@
       <c r="E35" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="F35" s="272"/>
-      <c r="G35" s="273"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="271"/>
       <c r="H35" s="122"/>
       <c r="I35" s="122"/>
       <c r="J35" s="122"/>
@@ -28758,8 +28758,8 @@
       <c r="E36" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="269"/>
-      <c r="G36" s="270"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="260"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="98">
@@ -28777,8 +28777,8 @@
       <c r="E37" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F37" s="269"/>
-      <c r="G37" s="270"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="104"/>
@@ -28791,10 +28791,10 @@
       <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="258" t="s">
+      <c r="B39" s="264" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="258"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
@@ -28818,15 +28818,15 @@
       <c r="B41" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="271" t="s">
+      <c r="C41" s="269" t="s">
         <v>370</v>
       </c>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271" t="s">
+      <c r="D41" s="269"/>
+      <c r="E41" s="269" t="s">
         <v>371</v>
       </c>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
       <c r="H41" s="97" t="s">
         <v>372</v>
       </c>
@@ -28838,15 +28838,15 @@
       <c r="B42" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="268" t="s">
+      <c r="C42" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D42" s="268"/>
-      <c r="E42" s="268" t="s">
+      <c r="D42" s="272"/>
+      <c r="E42" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="268"/>
-      <c r="G42" s="268"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="272"/>
       <c r="H42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -28856,15 +28856,15 @@
       <c r="B43" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C43" s="268" t="s">
+      <c r="C43" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="268"/>
-      <c r="E43" s="268" t="s">
+      <c r="D43" s="272"/>
+      <c r="E43" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="268"/>
-      <c r="G43" s="268"/>
+      <c r="F43" s="272"/>
+      <c r="G43" s="272"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -28874,15 +28874,15 @@
       <c r="B44" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="268" t="s">
+      <c r="C44" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D44" s="268"/>
-      <c r="E44" s="268" t="s">
+      <c r="D44" s="272"/>
+      <c r="E44" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="268"/>
-      <c r="G44" s="268"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="272"/>
       <c r="H44" s="107"/>
     </row>
     <row r="45" spans="1:12">
@@ -28894,10 +28894,10 @@
       <c r="G45" s="96"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="258" t="s">
+      <c r="B46" s="264" t="s">
         <v>376</v>
       </c>
-      <c r="C46" s="258"/>
+      <c r="C46" s="264"/>
       <c r="D46" s="92"/>
       <c r="E46" s="92"/>
       <c r="F46" s="92"/>
@@ -28915,25 +28915,25 @@
       <c r="G47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="259" t="s">
+      <c r="A48" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="261" t="s">
+      <c r="B48" s="277" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="263" t="s">
+      <c r="C48" s="267" t="s">
         <v>379</v>
       </c>
-      <c r="D48" s="264"/>
-      <c r="E48" s="264"/>
-      <c r="F48" s="265"/>
-      <c r="G48" s="266" t="s">
+      <c r="D48" s="279"/>
+      <c r="E48" s="279"/>
+      <c r="F48" s="268"/>
+      <c r="G48" s="280" t="s">
         <v>346</v>
       </c>
-      <c r="H48" s="266" t="s">
+      <c r="H48" s="280" t="s">
         <v>378</v>
       </c>
-      <c r="I48" s="256" t="s">
+      <c r="I48" s="273" t="s">
         <v>380</v>
       </c>
       <c r="J48" s="110"/>
@@ -28941,8 +28941,8 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="260"/>
-      <c r="B49" s="262"/>
+      <c r="A49" s="276"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="112" t="s">
         <v>355</v>
       </c>
@@ -28955,13 +28955,13 @@
       <c r="F49" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="G49" s="267"/>
-      <c r="H49" s="267"/>
-      <c r="I49" s="257"/>
+      <c r="G49" s="281"/>
+      <c r="H49" s="281"/>
+      <c r="I49" s="274"/>
     </row>
     <row r="50" spans="1:9" ht="26">
-      <c r="A50" s="260"/>
-      <c r="B50" s="262"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="126" t="s">
         <v>381</v>
       </c>
@@ -29073,6 +29073,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -29085,26 +29105,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -29307,18 +29307,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29341,18 +29341,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
+++ b/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
@@ -2567,9 +2567,6 @@
 2. The UI for the strike is properly designed</t>
   </si>
   <si>
-    <t>Check UI for price display following UI check list</t>
-  </si>
-  <si>
     <t>Thu Anh Nguyen</t>
   </si>
   <si>
@@ -2909,6 +2906,9 @@
   </si>
   <si>
     <t>Check that there are 2 commas used as decimal separators when the price is between ₫1,000,000 and ₫999,999,999</t>
+  </si>
+  <si>
+    <t>Check UI for View Product Function following UI check list</t>
   </si>
 </sst>
 </file>
@@ -4588,26 +4588,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4621,46 +4606,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4668,6 +4626,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4681,13 +4642,52 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
       <c r="A6" s="222" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="223"/>
       <c r="C6" s="224"/>
@@ -5528,16 +5528,16 @@
         <v>44851</v>
       </c>
       <c r="C10" s="129" t="s">
+        <v>486</v>
+      </c>
+      <c r="D10" s="146" t="s">
         <v>487</v>
       </c>
-      <c r="D10" s="146" t="s">
+      <c r="E10" s="130" t="s">
         <v>488</v>
       </c>
-      <c r="E10" s="130" t="s">
-        <v>489</v>
-      </c>
       <c r="F10" s="130" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="144" customFormat="1" ht="30" customHeight="1">
@@ -6096,7 +6096,7 @@
         <v>53</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
@@ -6371,8 +6371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
@@ -6431,7 +6431,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="242" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C4" s="242"/>
       <c r="D4" s="242"/>
@@ -6478,7 +6478,7 @@
         <v>68</v>
       </c>
       <c r="B7" s="242" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="242"/>
       <c r="D7" s="242"/>
@@ -6494,7 +6494,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="243" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" s="243"/>
       <c r="D8" s="243"/>
@@ -6610,7 +6610,7 @@
     <row r="18" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A18" s="65"/>
       <c r="B18" s="161" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C18" s="164"/>
       <c r="D18" s="165"/>
@@ -6625,13 +6625,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="183" t="s">
-        <v>416</v>
+        <v>507</v>
       </c>
       <c r="C19" s="183" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D19" s="184" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E19" s="185" t="s">
         <v>73</v>
@@ -6644,7 +6644,7 @@
     <row r="20" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A20" s="65"/>
       <c r="B20" s="161" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C20" s="159"/>
       <c r="D20" s="160"/>
@@ -6657,7 +6657,7 @@
     <row r="21" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A21" s="65"/>
       <c r="B21" s="161" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="159"/>
       <c r="D21" s="160"/>
@@ -6672,13 +6672,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C22" s="183" t="s">
         <v>390</v>
       </c>
       <c r="D22" s="184" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E22" s="185" t="s">
         <v>73</v>
@@ -6694,13 +6694,13 @@
         <v>3</v>
       </c>
       <c r="B23" s="183" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="183" t="s">
         <v>392</v>
       </c>
       <c r="D23" s="184" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E23" s="185" t="s">
         <v>73</v>
@@ -6716,13 +6716,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C24" s="183" t="s">
         <v>393</v>
       </c>
       <c r="D24" s="184" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E24" s="185" t="s">
         <v>73</v>
@@ -6738,13 +6738,13 @@
         <v>5</v>
       </c>
       <c r="B25" s="206" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C25" s="206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D25" s="192" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E25" s="207" t="s">
         <v>73</v>
@@ -6760,13 +6760,13 @@
         <v>6</v>
       </c>
       <c r="B26" s="183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C26" s="183" t="s">
         <v>394</v>
       </c>
       <c r="D26" s="184" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E26" s="185" t="s">
         <v>73</v>
@@ -6782,13 +6782,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" s="183" t="s">
         <v>395</v>
       </c>
       <c r="D27" s="184" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E27" s="185" t="s">
         <v>73</v>
@@ -6804,13 +6804,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="206" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C28" s="206" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D28" s="192" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E28" s="207" t="s">
         <v>73</v>
@@ -6826,13 +6826,13 @@
         <v>9</v>
       </c>
       <c r="B29" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C29" s="183" t="s">
         <v>392</v>
       </c>
       <c r="D29" s="184" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E29" s="185" t="s">
         <v>73</v>
@@ -6848,13 +6848,13 @@
         <v>10</v>
       </c>
       <c r="B30" s="183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C30" s="183" t="s">
         <v>396</v>
       </c>
       <c r="D30" s="184" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E30" s="185" t="s">
         <v>73</v>
@@ -6870,13 +6870,13 @@
         <v>11</v>
       </c>
       <c r="B31" s="183" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C31" s="183" t="s">
         <v>397</v>
       </c>
       <c r="D31" s="184" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E31" s="185" t="s">
         <v>73</v>
@@ -6889,7 +6889,7 @@
     <row r="32" spans="1:9" s="181" customFormat="1" ht="13">
       <c r="A32" s="65"/>
       <c r="B32" s="161" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C32" s="159"/>
       <c r="D32" s="160"/>
@@ -6905,13 +6905,13 @@
         <v>12</v>
       </c>
       <c r="B33" s="183" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C33" s="183" t="s">
         <v>391</v>
       </c>
       <c r="D33" s="184" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E33" s="185" t="s">
         <v>73</v>
@@ -6949,13 +6949,13 @@
         <v>14</v>
       </c>
       <c r="B35" s="183" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C35" s="183" t="s">
         <v>398</v>
       </c>
       <c r="D35" s="184" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E35" s="185" t="s">
         <v>73</v>
@@ -6971,13 +6971,13 @@
         <v>15</v>
       </c>
       <c r="B36" s="183" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C36" s="183" t="s">
         <v>399</v>
       </c>
       <c r="D36" s="184" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E36" s="185" t="s">
         <v>73</v>
@@ -6993,13 +6993,13 @@
         <v>16</v>
       </c>
       <c r="B37" s="206" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C37" s="206" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D37" s="192" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E37" s="185" t="s">
         <v>73</v>
@@ -7015,13 +7015,13 @@
         <v>17</v>
       </c>
       <c r="B38" s="183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C38" s="183" t="s">
         <v>400</v>
       </c>
       <c r="D38" s="184" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E38" s="185" t="s">
         <v>73</v>
@@ -7037,13 +7037,13 @@
         <v>18</v>
       </c>
       <c r="B39" s="183" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" s="183" t="s">
         <v>401</v>
       </c>
       <c r="D39" s="184" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E39" s="185" t="s">
         <v>73</v>
@@ -7059,13 +7059,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="206" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C40" s="206" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D40" s="192" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E40" s="185" t="s">
         <v>73</v>
@@ -7081,13 +7081,13 @@
         <v>20</v>
       </c>
       <c r="B41" s="183" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C41" s="183" t="s">
         <v>398</v>
       </c>
       <c r="D41" s="184" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E41" s="185" t="s">
         <v>73</v>
@@ -7103,13 +7103,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="183" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C42" s="183" t="s">
         <v>402</v>
       </c>
       <c r="D42" s="184" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E42" s="185" t="s">
         <v>73</v>
@@ -7125,13 +7125,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="183" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C43" s="183" t="s">
         <v>403</v>
       </c>
       <c r="D43" s="184" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E43" s="185" t="s">
         <v>73</v>
@@ -7147,13 +7147,13 @@
         <v>23</v>
       </c>
       <c r="B44" s="192" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C44" s="192" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D44" s="192" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E44" s="192" t="s">
         <v>73</v>
@@ -23540,13 +23540,13 @@
         <v>24</v>
       </c>
       <c r="B45" s="183" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C45" s="183" t="s">
         <v>414</v>
       </c>
       <c r="D45" s="185" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E45" s="185" t="s">
         <v>73</v>
@@ -23562,13 +23562,13 @@
         <v>25</v>
       </c>
       <c r="B46" s="183" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C46" s="183" t="s">
         <v>405</v>
       </c>
       <c r="D46" s="185" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E46" s="185" t="s">
         <v>73</v>
@@ -23584,13 +23584,13 @@
         <v>26</v>
       </c>
       <c r="B47" s="183" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C47" s="183" t="s">
         <v>413</v>
       </c>
       <c r="D47" s="185" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E47" s="185" t="s">
         <v>73</v>
@@ -23616,7 +23616,7 @@
     <row r="49" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A49" s="189"/>
       <c r="B49" s="161" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C49" s="164"/>
       <c r="D49" s="165"/>
@@ -23631,13 +23631,13 @@
         <v>27</v>
       </c>
       <c r="B50" s="183" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C50" s="183" t="s">
+        <v>424</v>
+      </c>
+      <c r="D50" s="192" t="s">
         <v>425</v>
-      </c>
-      <c r="D50" s="192" t="s">
-        <v>426</v>
       </c>
       <c r="E50" s="185" t="s">
         <v>73</v>
@@ -23653,13 +23653,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="193" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C51" s="211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D51" s="192" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E51" s="185" t="s">
         <v>73</v>
@@ -23675,13 +23675,13 @@
         <v>29</v>
       </c>
       <c r="B52" s="193" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C52" s="193" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D52" s="193" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E52" s="185" t="s">
         <v>73</v>
@@ -23697,13 +23697,13 @@
         <v>30</v>
       </c>
       <c r="B53" s="193" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="193" t="s">
         <v>430</v>
       </c>
-      <c r="C53" s="193" t="s">
-        <v>431</v>
-      </c>
       <c r="D53" s="193" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E53" s="185" t="s">
         <v>73</v>
@@ -23722,10 +23722,10 @@
         <v>408</v>
       </c>
       <c r="C54" s="193" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D54" s="193" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E54" s="185" t="s">
         <v>73</v>
@@ -23744,10 +23744,10 @@
         <v>388</v>
       </c>
       <c r="C55" s="193" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D55" s="193" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E55" s="185" t="s">
         <v>73</v>
@@ -23760,7 +23760,7 @@
     <row r="56" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A56" s="189"/>
       <c r="B56" s="162" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C56" s="159"/>
       <c r="D56" s="202"/>
@@ -23776,13 +23776,13 @@
         <v>33</v>
       </c>
       <c r="B57" s="193" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C57" s="204" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D57" s="203" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E57" s="185" t="s">
         <v>73</v>
@@ -23798,13 +23798,13 @@
         <v>34</v>
       </c>
       <c r="B58" s="193" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C58" s="193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D58" s="193" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E58" s="185" t="s">
         <v>73</v>
@@ -23823,10 +23823,10 @@
         <v>389</v>
       </c>
       <c r="C59" s="193" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D59" s="193" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E59" s="185" t="s">
         <v>73</v>
@@ -23839,7 +23839,7 @@
     <row r="60" spans="1:9" s="188" customFormat="1" ht="14">
       <c r="A60" s="189"/>
       <c r="B60" s="163" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C60" s="159"/>
       <c r="D60" s="160"/>
@@ -23855,13 +23855,13 @@
         <v>36</v>
       </c>
       <c r="B61" s="193" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C61" s="199" t="s">
         <v>411</v>
       </c>
       <c r="D61" s="184" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E61" s="185" t="s">
         <v>73</v>
@@ -23877,13 +23877,13 @@
         <v>37</v>
       </c>
       <c r="B62" s="193" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C62" s="199" t="s">
         <v>412</v>
       </c>
       <c r="D62" s="184" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E62" s="185" t="s">
         <v>73</v>
@@ -23899,13 +23899,13 @@
         <v>38</v>
       </c>
       <c r="B63" s="193" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C63" s="199" t="s">
         <v>410</v>
       </c>
       <c r="D63" s="184" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E63" s="185" t="s">
         <v>73</v>
@@ -23921,13 +23921,13 @@
         <v>39</v>
       </c>
       <c r="B64" s="193" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C64" s="199" t="s">
         <v>409</v>
       </c>
       <c r="D64" s="184" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E64" s="185" t="s">
         <v>73</v>
@@ -23991,7 +23991,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="258"/>
+      <c r="E2" s="253"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -24000,9 +24000,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="258"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="253"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -24013,11 +24013,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="249" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -24031,11 +24031,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -24049,11 +24049,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -24064,11 +24064,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -24080,11 +24080,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="253">
+      <c r="B8" s="258">
         <v>40850</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -24227,11 +24227,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="255" t="s">
+      <c r="F16" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="256"/>
-      <c r="H16" s="257"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -24265,11 +24265,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="256"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -24548,11 +24548,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="256"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -24701,11 +24701,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="250"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="256"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -24742,11 +24742,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="254" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="249"/>
-      <c r="D37" s="250"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="256"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -25007,11 +25007,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="249"/>
-      <c r="D47" s="250"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="256"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -25132,11 +25132,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="248" t="s">
+      <c r="B52" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="249"/>
-      <c r="D52" s="250"/>
+      <c r="C52" s="255"/>
+      <c r="D52" s="256"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -25229,11 +25229,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="248" t="s">
+      <c r="B56" s="254" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="249"/>
-      <c r="D56" s="250"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="256"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -25550,11 +25550,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="248" t="s">
+      <c r="B68" s="254" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="249"/>
-      <c r="D68" s="250"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="256"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -25647,11 +25647,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="248" t="s">
+      <c r="B72" s="254" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="249"/>
-      <c r="D72" s="250"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="256"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -25744,11 +25744,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="248" t="s">
+      <c r="B76" s="254" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="249"/>
-      <c r="D76" s="250"/>
+      <c r="C76" s="255"/>
+      <c r="D76" s="256"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -25813,11 +25813,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="254" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="249"/>
-      <c r="D79" s="250"/>
+      <c r="C79" s="255"/>
+      <c r="D79" s="256"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -25966,17 +25966,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -25987,6 +25976,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -26042,7 +26042,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="258"/>
+      <c r="E2" s="253"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -26051,9 +26051,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="258"/>
+      <c r="C3" s="248"/>
+      <c r="D3" s="248"/>
+      <c r="E3" s="253"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -26064,11 +26064,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="252" t="s">
+      <c r="B4" s="249" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="252"/>
-      <c r="D4" s="252"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -26082,11 +26082,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="252"/>
-      <c r="D5" s="252"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -26100,11 +26100,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="257" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="252"/>
-      <c r="D6" s="252"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -26115,11 +26115,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="252"/>
-      <c r="D7" s="252"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -26131,11 +26131,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="253">
+      <c r="B8" s="258">
         <v>40850</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="253"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -26278,11 +26278,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="255" t="s">
+      <c r="F16" s="250" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="256"/>
-      <c r="H16" s="257"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="252"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -26316,11 +26316,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="248" t="s">
+      <c r="B18" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="249"/>
-      <c r="D18" s="250"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="256"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -26601,11 +26601,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="254" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="256"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -26754,11 +26754,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="248" t="s">
+      <c r="B35" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="249"/>
-      <c r="D35" s="250"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="256"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -26795,11 +26795,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="248" t="s">
+      <c r="B37" s="254" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="249"/>
-      <c r="D37" s="250"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="256"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -27060,11 +27060,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="248" t="s">
+      <c r="B47" s="254" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="249"/>
-      <c r="D47" s="250"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="256"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -27185,11 +27185,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="248" t="s">
+      <c r="B52" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="249"/>
-      <c r="D52" s="250"/>
+      <c r="C52" s="255"/>
+      <c r="D52" s="256"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -27282,11 +27282,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="248" t="s">
+      <c r="B56" s="254" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="249"/>
-      <c r="D56" s="250"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="256"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -27603,11 +27603,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="248" t="s">
+      <c r="B68" s="254" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="249"/>
-      <c r="D68" s="250"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="256"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -27700,11 +27700,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="248" t="s">
+      <c r="B72" s="254" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="249"/>
-      <c r="D72" s="250"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="256"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -27797,11 +27797,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="248" t="s">
+      <c r="B76" s="254" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="249"/>
-      <c r="D76" s="250"/>
+      <c r="C76" s="255"/>
+      <c r="D76" s="256"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -27866,11 +27866,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="248" t="s">
+      <c r="B79" s="254" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="249"/>
-      <c r="D79" s="250"/>
+      <c r="C79" s="255"/>
+      <c r="D79" s="256"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -28019,6 +28019,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -28029,17 +28040,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -28096,13 +28096,13 @@
     </row>
     <row r="2" spans="1:12" s="82" customFormat="1" ht="25">
       <c r="A2" s="81"/>
-      <c r="C2" s="261" t="s">
+      <c r="C2" s="277" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="261"/>
-      <c r="E2" s="261"/>
-      <c r="F2" s="261"/>
-      <c r="G2" s="261"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
       <c r="H2" s="83" t="s">
         <v>304</v>
       </c>
@@ -28113,15 +28113,15 @@
     </row>
     <row r="3" spans="1:12" s="82" customFormat="1" ht="23">
       <c r="A3" s="81"/>
-      <c r="C3" s="262" t="s">
+      <c r="C3" s="278" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="262"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="153"/>
-      <c r="F3" s="263" t="s">
+      <c r="F3" s="279" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="263"/>
+      <c r="G3" s="279"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
@@ -28146,10 +28146,10 @@
       <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="264" t="s">
+      <c r="B6" s="261" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="264"/>
+      <c r="C6" s="261"/>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
@@ -28318,11 +28318,11 @@
       <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="264" t="s">
+      <c r="B14" s="261" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="264"/>
-      <c r="D14" s="264"/>
+      <c r="C14" s="261"/>
+      <c r="D14" s="261"/>
       <c r="E14" s="92"/>
       <c r="F14" s="92"/>
       <c r="G14" s="93"/>
@@ -28498,11 +28498,11 @@
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="264" t="s">
+      <c r="B23" s="261" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="264"/>
-      <c r="D23" s="264"/>
+      <c r="C23" s="261"/>
+      <c r="D23" s="261"/>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
@@ -28548,10 +28548,10 @@
       <c r="F26" s="156" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="265" t="s">
+      <c r="G26" s="280" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="266"/>
+      <c r="H26" s="281"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="98">
@@ -28576,8 +28576,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="259"/>
-      <c r="H27" s="260"/>
+      <c r="G27" s="272"/>
+      <c r="H27" s="273"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="98">
@@ -28602,8 +28602,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="259"/>
-      <c r="H28" s="260"/>
+      <c r="G28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="98">
@@ -28628,8 +28628,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="259"/>
-      <c r="H29" s="260"/>
+      <c r="G29" s="272"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="98">
@@ -28654,8 +28654,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="259"/>
-      <c r="H30" s="260"/>
+      <c r="G30" s="272"/>
+      <c r="H30" s="273"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="98"/>
@@ -28676,8 +28676,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="259"/>
-      <c r="H31" s="260"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="104"/>
@@ -28715,7 +28715,7 @@
       <c r="E34" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="267" t="s">
+      <c r="F34" s="266" t="s">
         <v>316</v>
       </c>
       <c r="G34" s="268"/>
@@ -28734,8 +28734,8 @@
       <c r="E35" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="F35" s="270"/>
-      <c r="G35" s="271"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="276"/>
       <c r="H35" s="122"/>
       <c r="I35" s="122"/>
       <c r="J35" s="122"/>
@@ -28758,8 +28758,8 @@
       <c r="E36" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="259"/>
-      <c r="G36" s="260"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="273"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="98">
@@ -28777,8 +28777,8 @@
       <c r="E37" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F37" s="259"/>
-      <c r="G37" s="260"/>
+      <c r="F37" s="272"/>
+      <c r="G37" s="273"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="104"/>
@@ -28791,10 +28791,10 @@
       <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="264" t="s">
+      <c r="B39" s="261" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="264"/>
+      <c r="C39" s="261"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
@@ -28818,15 +28818,15 @@
       <c r="B41" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="274" t="s">
         <v>370</v>
       </c>
-      <c r="D41" s="269"/>
-      <c r="E41" s="269" t="s">
+      <c r="D41" s="274"/>
+      <c r="E41" s="274" t="s">
         <v>371</v>
       </c>
-      <c r="F41" s="269"/>
-      <c r="G41" s="269"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="274"/>
       <c r="H41" s="97" t="s">
         <v>372</v>
       </c>
@@ -28838,15 +28838,15 @@
       <c r="B42" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="272" t="s">
+      <c r="C42" s="271" t="s">
         <v>374</v>
       </c>
-      <c r="D42" s="272"/>
-      <c r="E42" s="272" t="s">
+      <c r="D42" s="271"/>
+      <c r="E42" s="271" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="272"/>
-      <c r="G42" s="272"/>
+      <c r="F42" s="271"/>
+      <c r="G42" s="271"/>
       <c r="H42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -28856,15 +28856,15 @@
       <c r="B43" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C43" s="272" t="s">
+      <c r="C43" s="271" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="272"/>
-      <c r="E43" s="272" t="s">
+      <c r="D43" s="271"/>
+      <c r="E43" s="271" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="272"/>
-      <c r="G43" s="272"/>
+      <c r="F43" s="271"/>
+      <c r="G43" s="271"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -28874,15 +28874,15 @@
       <c r="B44" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="272" t="s">
+      <c r="C44" s="271" t="s">
         <v>374</v>
       </c>
-      <c r="D44" s="272"/>
-      <c r="E44" s="272" t="s">
+      <c r="D44" s="271"/>
+      <c r="E44" s="271" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="272"/>
-      <c r="G44" s="272"/>
+      <c r="F44" s="271"/>
+      <c r="G44" s="271"/>
       <c r="H44" s="107"/>
     </row>
     <row r="45" spans="1:12">
@@ -28894,10 +28894,10 @@
       <c r="G45" s="96"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="264" t="s">
+      <c r="B46" s="261" t="s">
         <v>376</v>
       </c>
-      <c r="C46" s="264"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="92"/>
       <c r="E46" s="92"/>
       <c r="F46" s="92"/>
@@ -28915,25 +28915,25 @@
       <c r="G47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="275" t="s">
+      <c r="A48" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="277" t="s">
+      <c r="B48" s="264" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="267" t="s">
+      <c r="C48" s="266" t="s">
         <v>379</v>
       </c>
-      <c r="D48" s="279"/>
-      <c r="E48" s="279"/>
+      <c r="D48" s="267"/>
+      <c r="E48" s="267"/>
       <c r="F48" s="268"/>
-      <c r="G48" s="280" t="s">
+      <c r="G48" s="269" t="s">
         <v>346</v>
       </c>
-      <c r="H48" s="280" t="s">
+      <c r="H48" s="269" t="s">
         <v>378</v>
       </c>
-      <c r="I48" s="273" t="s">
+      <c r="I48" s="259" t="s">
         <v>380</v>
       </c>
       <c r="J48" s="110"/>
@@ -28941,8 +28941,8 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="276"/>
-      <c r="B49" s="278"/>
+      <c r="A49" s="263"/>
+      <c r="B49" s="265"/>
       <c r="C49" s="112" t="s">
         <v>355</v>
       </c>
@@ -28955,13 +28955,13 @@
       <c r="F49" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="G49" s="281"/>
-      <c r="H49" s="281"/>
-      <c r="I49" s="274"/>
+      <c r="G49" s="270"/>
+      <c r="H49" s="270"/>
+      <c r="I49" s="260"/>
     </row>
     <row r="50" spans="1:9" ht="26">
-      <c r="A50" s="276"/>
-      <c r="B50" s="278"/>
+      <c r="A50" s="263"/>
+      <c r="B50" s="265"/>
       <c r="C50" s="126" t="s">
         <v>381</v>
       </c>
@@ -29073,26 +29073,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -29105,6 +29085,26 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -29142,6 +29142,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -29306,22 +29321,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29338,21 +29355,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
+++ b/Assignment 1/Assignment 1 _ Test Case _ Nguyen Thu Anh _ v2.xlsx
@@ -4588,11 +4588,26 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4606,19 +4621,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="16" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4626,9 +4668,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4642,52 +4681,13 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="11" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="46" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="15" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="11" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="43" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23991,7 +23991,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="253"/>
+      <c r="E2" s="258"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -24000,9 +24000,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="253"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="258"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -24013,11 +24013,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -24031,11 +24031,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -24049,11 +24049,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -24064,11 +24064,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -24080,11 +24080,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="258">
+      <c r="B8" s="253">
         <v>40850</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -24227,11 +24227,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="250" t="s">
+      <c r="F16" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="252"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="257"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -24265,11 +24265,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="256"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -24548,11 +24548,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="254" t="s">
+      <c r="B29" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="255"/>
-      <c r="D29" s="256"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -24701,11 +24701,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="254" t="s">
+      <c r="B35" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="255"/>
-      <c r="D35" s="256"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -24742,11 +24742,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="254" t="s">
+      <c r="B37" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="255"/>
-      <c r="D37" s="256"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -25007,11 +25007,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="254" t="s">
+      <c r="B47" s="248" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="255"/>
-      <c r="D47" s="256"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="250"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -25132,11 +25132,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="254" t="s">
+      <c r="B52" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="255"/>
-      <c r="D52" s="256"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -25229,11 +25229,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="254" t="s">
+      <c r="B56" s="248" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="255"/>
-      <c r="D56" s="256"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="250"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -25550,11 +25550,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="254" t="s">
+      <c r="B68" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="255"/>
-      <c r="D68" s="256"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="250"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -25647,11 +25647,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="254" t="s">
+      <c r="B72" s="248" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="255"/>
-      <c r="D72" s="256"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="250"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -25744,11 +25744,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="254" t="s">
+      <c r="B76" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="255"/>
-      <c r="D76" s="256"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="250"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -25813,11 +25813,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="254" t="s">
+      <c r="B79" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="255"/>
-      <c r="D79" s="256"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="250"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -25966,6 +25966,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -25976,17 +25987,6 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F85:H142">
@@ -26042,7 +26042,7 @@
       <c r="B2" s="246"/>
       <c r="C2" s="246"/>
       <c r="D2" s="246"/>
-      <c r="E2" s="253"/>
+      <c r="E2" s="258"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
@@ -26051,9 +26051,9 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="31.5" customHeight="1">
       <c r="A3" s="47"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="253"/>
+      <c r="C3" s="254"/>
+      <c r="D3" s="254"/>
+      <c r="E3" s="258"/>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -26064,11 +26064,11 @@
       <c r="A4" s="136" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="252" t="s">
         <v>300</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
+      <c r="C4" s="252"/>
+      <c r="D4" s="252"/>
       <c r="E4" s="39"/>
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
@@ -26082,11 +26082,11 @@
       <c r="A5" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="257" t="s">
+      <c r="B5" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="249"/>
-      <c r="D5" s="249"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
       <c r="E5" s="39"/>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
@@ -26100,11 +26100,11 @@
       <c r="A6" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="257" t="s">
+      <c r="B6" s="251" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="249"/>
-      <c r="D6" s="249"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
@@ -26115,11 +26115,11 @@
       <c r="A7" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
@@ -26131,11 +26131,11 @@
       <c r="A8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="258">
+      <c r="B8" s="253">
         <v>40850</v>
       </c>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="253"/>
       <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:24" s="43" customFormat="1" ht="13">
@@ -26278,11 +26278,11 @@
       <c r="C16" s="50"/>
       <c r="D16" s="51"/>
       <c r="E16" s="63"/>
-      <c r="F16" s="250" t="s">
+      <c r="F16" s="255" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="251"/>
-      <c r="H16" s="252"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="257"/>
       <c r="I16" s="63"/>
     </row>
     <row r="17" spans="1:9" s="44" customFormat="1" ht="39">
@@ -26316,11 +26316,11 @@
     </row>
     <row r="18" spans="1:9" s="44" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="65"/>
-      <c r="B18" s="254" t="s">
+      <c r="B18" s="248" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="255"/>
-      <c r="D18" s="256"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="250"/>
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="66"/>
@@ -26601,11 +26601,11 @@
     </row>
     <row r="29" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A29" s="75"/>
-      <c r="B29" s="254" t="s">
+      <c r="B29" s="248" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="255"/>
-      <c r="D29" s="256"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
       <c r="E29" s="67"/>
       <c r="F29" s="64"/>
       <c r="G29" s="64"/>
@@ -26754,11 +26754,11 @@
     </row>
     <row r="35" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A35" s="75"/>
-      <c r="B35" s="254" t="s">
+      <c r="B35" s="248" t="s">
         <v>143</v>
       </c>
-      <c r="C35" s="255"/>
-      <c r="D35" s="256"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="250"/>
       <c r="E35" s="67"/>
       <c r="F35" s="64"/>
       <c r="G35" s="64"/>
@@ -26795,11 +26795,11 @@
     </row>
     <row r="37" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A37" s="75"/>
-      <c r="B37" s="254" t="s">
+      <c r="B37" s="248" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="255"/>
-      <c r="D37" s="256"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="250"/>
       <c r="E37" s="67"/>
       <c r="F37" s="64"/>
       <c r="G37" s="64"/>
@@ -27060,11 +27060,11 @@
     </row>
     <row r="47" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A47" s="75"/>
-      <c r="B47" s="254" t="s">
+      <c r="B47" s="248" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="255"/>
-      <c r="D47" s="256"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="250"/>
       <c r="E47" s="67"/>
       <c r="F47" s="64"/>
       <c r="G47" s="64"/>
@@ -27185,11 +27185,11 @@
     </row>
     <row r="52" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A52" s="75"/>
-      <c r="B52" s="254" t="s">
+      <c r="B52" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="255"/>
-      <c r="D52" s="256"/>
+      <c r="C52" s="249"/>
+      <c r="D52" s="250"/>
       <c r="E52" s="67"/>
       <c r="F52" s="64"/>
       <c r="G52" s="64"/>
@@ -27282,11 +27282,11 @@
     </row>
     <row r="56" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A56" s="75"/>
-      <c r="B56" s="254" t="s">
+      <c r="B56" s="248" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="255"/>
-      <c r="D56" s="256"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="250"/>
       <c r="E56" s="67"/>
       <c r="F56" s="64"/>
       <c r="G56" s="64"/>
@@ -27603,11 +27603,11 @@
     </row>
     <row r="68" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A68" s="75"/>
-      <c r="B68" s="254" t="s">
+      <c r="B68" s="248" t="s">
         <v>252</v>
       </c>
-      <c r="C68" s="255"/>
-      <c r="D68" s="256"/>
+      <c r="C68" s="249"/>
+      <c r="D68" s="250"/>
       <c r="E68" s="67"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
@@ -27700,11 +27700,11 @@
     </row>
     <row r="72" spans="1:9" s="48" customFormat="1" ht="14">
       <c r="A72" s="75"/>
-      <c r="B72" s="254" t="s">
+      <c r="B72" s="248" t="s">
         <v>262</v>
       </c>
-      <c r="C72" s="255"/>
-      <c r="D72" s="256"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="250"/>
       <c r="E72" s="67"/>
       <c r="F72" s="64"/>
       <c r="G72" s="64"/>
@@ -27797,11 +27797,11 @@
     </row>
     <row r="76" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A76" s="75"/>
-      <c r="B76" s="254" t="s">
+      <c r="B76" s="248" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="255"/>
-      <c r="D76" s="256"/>
+      <c r="C76" s="249"/>
+      <c r="D76" s="250"/>
       <c r="E76" s="67"/>
       <c r="F76" s="64"/>
       <c r="G76" s="64"/>
@@ -27866,11 +27866,11 @@
     </row>
     <row r="79" spans="1:9" s="48" customFormat="1" ht="14.25" customHeight="1">
       <c r="A79" s="75"/>
-      <c r="B79" s="254" t="s">
+      <c r="B79" s="248" t="s">
         <v>281</v>
       </c>
-      <c r="C79" s="255"/>
-      <c r="D79" s="256"/>
+      <c r="C79" s="249"/>
+      <c r="D79" s="250"/>
       <c r="E79" s="67"/>
       <c r="F79" s="64"/>
       <c r="G79" s="64"/>
@@ -28019,17 +28019,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B76:D76"/>
@@ -28040,6 +28029,17 @@
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="B68:D68"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" sqref="F19:H84">
@@ -28096,13 +28096,13 @@
     </row>
     <row r="2" spans="1:12" s="82" customFormat="1" ht="25">
       <c r="A2" s="81"/>
-      <c r="C2" s="277" t="s">
+      <c r="C2" s="261" t="s">
         <v>303</v>
       </c>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
+      <c r="D2" s="261"/>
+      <c r="E2" s="261"/>
+      <c r="F2" s="261"/>
+      <c r="G2" s="261"/>
       <c r="H2" s="83" t="s">
         <v>304</v>
       </c>
@@ -28113,15 +28113,15 @@
     </row>
     <row r="3" spans="1:12" s="82" customFormat="1" ht="23">
       <c r="A3" s="81"/>
-      <c r="C3" s="278" t="s">
+      <c r="C3" s="262" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="153"/>
-      <c r="F3" s="279" t="s">
+      <c r="F3" s="263" t="s">
         <v>306</v>
       </c>
-      <c r="G3" s="279"/>
+      <c r="G3" s="263"/>
       <c r="H3" s="84"/>
       <c r="I3" s="84"/>
       <c r="J3" s="85"/>
@@ -28146,10 +28146,10 @@
       <c r="L5" s="90"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="264" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="261"/>
+      <c r="C6" s="264"/>
       <c r="D6" s="92"/>
       <c r="E6" s="92"/>
       <c r="F6" s="92"/>
@@ -28318,11 +28318,11 @@
       <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="261" t="s">
+      <c r="B14" s="264" t="s">
         <v>337</v>
       </c>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
+      <c r="C14" s="264"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="92"/>
       <c r="F14" s="92"/>
       <c r="G14" s="93"/>
@@ -28498,11 +28498,11 @@
       <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="261" t="s">
+      <c r="B23" s="264" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="261"/>
-      <c r="D23" s="261"/>
+      <c r="C23" s="264"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
@@ -28548,10 +28548,10 @@
       <c r="F26" s="156" t="s">
         <v>354</v>
       </c>
-      <c r="G26" s="280" t="s">
+      <c r="G26" s="265" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="281"/>
+      <c r="H26" s="266"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="98">
@@ -28576,8 +28576,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="272"/>
-      <c r="H27" s="273"/>
+      <c r="G27" s="259"/>
+      <c r="H27" s="260"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="98">
@@ -28602,8 +28602,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="272"/>
-      <c r="H28" s="273"/>
+      <c r="G28" s="259"/>
+      <c r="H28" s="260"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="98">
@@ -28628,8 +28628,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="272"/>
-      <c r="H29" s="273"/>
+      <c r="G29" s="259"/>
+      <c r="H29" s="260"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="98">
@@ -28654,8 +28654,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="272"/>
-      <c r="H30" s="273"/>
+      <c r="G30" s="259"/>
+      <c r="H30" s="260"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="98"/>
@@ -28676,8 +28676,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="272"/>
-      <c r="H31" s="273"/>
+      <c r="G31" s="259"/>
+      <c r="H31" s="260"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="104"/>
@@ -28715,7 +28715,7 @@
       <c r="E34" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="F34" s="266" t="s">
+      <c r="F34" s="267" t="s">
         <v>316</v>
       </c>
       <c r="G34" s="268"/>
@@ -28734,8 +28734,8 @@
       <c r="E35" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="F35" s="275"/>
-      <c r="G35" s="276"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="271"/>
       <c r="H35" s="122"/>
       <c r="I35" s="122"/>
       <c r="J35" s="122"/>
@@ -28758,8 +28758,8 @@
       <c r="E36" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F36" s="272"/>
-      <c r="G36" s="273"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="260"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="98">
@@ -28777,8 +28777,8 @@
       <c r="E37" s="102" t="s">
         <v>327</v>
       </c>
-      <c r="F37" s="272"/>
-      <c r="G37" s="273"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="104"/>
@@ -28791,10 +28791,10 @@
       <c r="H38" s="106"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="261" t="s">
+      <c r="B39" s="264" t="s">
         <v>368</v>
       </c>
-      <c r="C39" s="261"/>
+      <c r="C39" s="264"/>
       <c r="D39" s="92"/>
       <c r="E39" s="92"/>
       <c r="F39" s="92"/>
@@ -28818,15 +28818,15 @@
       <c r="B41" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="274" t="s">
+      <c r="C41" s="269" t="s">
         <v>370</v>
       </c>
-      <c r="D41" s="274"/>
-      <c r="E41" s="274" t="s">
+      <c r="D41" s="269"/>
+      <c r="E41" s="269" t="s">
         <v>371</v>
       </c>
-      <c r="F41" s="274"/>
-      <c r="G41" s="274"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
       <c r="H41" s="97" t="s">
         <v>372</v>
       </c>
@@ -28838,15 +28838,15 @@
       <c r="B42" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C42" s="271" t="s">
+      <c r="C42" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D42" s="271"/>
-      <c r="E42" s="271" t="s">
+      <c r="D42" s="272"/>
+      <c r="E42" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F42" s="271"/>
-      <c r="G42" s="271"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="272"/>
       <c r="H42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -28856,15 +28856,15 @@
       <c r="B43" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C43" s="271" t="s">
+      <c r="C43" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D43" s="271"/>
-      <c r="E43" s="271" t="s">
+      <c r="D43" s="272"/>
+      <c r="E43" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F43" s="271"/>
-      <c r="G43" s="271"/>
+      <c r="F43" s="272"/>
+      <c r="G43" s="272"/>
       <c r="H43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -28874,15 +28874,15 @@
       <c r="B44" s="157" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="271" t="s">
+      <c r="C44" s="272" t="s">
         <v>374</v>
       </c>
-      <c r="D44" s="271"/>
-      <c r="E44" s="271" t="s">
+      <c r="D44" s="272"/>
+      <c r="E44" s="272" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="271"/>
-      <c r="G44" s="271"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="272"/>
       <c r="H44" s="107"/>
     </row>
     <row r="45" spans="1:12">
@@ -28894,10 +28894,10 @@
       <c r="G45" s="96"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="261" t="s">
+      <c r="B46" s="264" t="s">
         <v>376</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="264"/>
       <c r="D46" s="92"/>
       <c r="E46" s="92"/>
       <c r="F46" s="92"/>
@@ -28915,25 +28915,25 @@
       <c r="G47" s="96"/>
     </row>
     <row r="48" spans="1:12" s="111" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="262" t="s">
+      <c r="A48" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="264" t="s">
+      <c r="B48" s="277" t="s">
         <v>378</v>
       </c>
-      <c r="C48" s="266" t="s">
+      <c r="C48" s="267" t="s">
         <v>379</v>
       </c>
-      <c r="D48" s="267"/>
-      <c r="E48" s="267"/>
+      <c r="D48" s="279"/>
+      <c r="E48" s="279"/>
       <c r="F48" s="268"/>
-      <c r="G48" s="269" t="s">
+      <c r="G48" s="280" t="s">
         <v>346</v>
       </c>
-      <c r="H48" s="269" t="s">
+      <c r="H48" s="280" t="s">
         <v>378</v>
       </c>
-      <c r="I48" s="259" t="s">
+      <c r="I48" s="273" t="s">
         <v>380</v>
       </c>
       <c r="J48" s="110"/>
@@ -28941,8 +28941,8 @@
       <c r="L48" s="110"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="263"/>
-      <c r="B49" s="265"/>
+      <c r="A49" s="276"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="112" t="s">
         <v>355</v>
       </c>
@@ -28955,13 +28955,13 @@
       <c r="F49" s="113" t="s">
         <v>358</v>
       </c>
-      <c r="G49" s="270"/>
-      <c r="H49" s="270"/>
-      <c r="I49" s="260"/>
+      <c r="G49" s="281"/>
+      <c r="H49" s="281"/>
+      <c r="I49" s="274"/>
     </row>
     <row r="50" spans="1:9" ht="26">
-      <c r="A50" s="263"/>
-      <c r="B50" s="265"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="126" t="s">
         <v>381</v>
       </c>
@@ -29073,6 +29073,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -29085,26 +29105,6 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
@@ -29148,15 +29148,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008DD9373D9A24F64F89F14F461305A106" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edefd2bea9a69e65a3918d4b9d850884">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cabca498-5e2a-459c-ade0-601c6a98c846" xmlns:ns3="044e8ed5-b60c-40cd-b477-04c240ccf9c3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1cdcf90a8e7cb27405451b504492cec2" ns2:_="" ns3:_="">
     <xsd:import namespace="cabca498-5e2a-459c-ade0-601c6a98c846"/>
@@ -29321,24 +29312,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E3E4FA-795A-4742-A021-9CDC3210C50B}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="044e8ed5-b60c-40cd-b477-04c240ccf9c3"/>
+    <ds:schemaRef ds:uri="cabca498-5e2a-459c-ade0-601c6a98c846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7729ACD-7A20-4344-BFA5-B224A8419F45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29355,4 +29355,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F8C6C6D-E626-49D4-9BA8-E27B2B9C9191}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>